--- a/Tests/Excel chart formats.xlsx
+++ b/Tests/Excel chart formats.xlsx
@@ -9,19 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$F$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$F$2:$F$542</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$F$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$F$2:$F$542</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$F$2:$F$542</definedName>
-  </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>Buy and Hold</t>
   </si>
@@ -116,13 +109,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00%;[Red]\-#,##0.00%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,6 +272,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18034,10 +18036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:Q22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18055,10 +18057,17 @@
     <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -18096,8 +18105,26 @@
       <c r="Q1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -18140,8 +18167,29 @@
       <c r="Q2">
         <v>15.6395</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>14.282299999999999</v>
+      </c>
+      <c r="U2">
+        <v>14.3043</v>
+      </c>
+      <c r="V2">
+        <v>14.353300000000001</v>
+      </c>
+      <c r="W2">
+        <v>14.8474</v>
+      </c>
+      <c r="X2">
+        <v>14.0341</v>
+      </c>
+      <c r="Y2">
+        <v>14.448600000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -18184,8 +18232,29 @@
       <c r="Q3">
         <v>7.0666000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>9.4352</v>
+      </c>
+      <c r="U3">
+        <v>7.0384000000000002</v>
+      </c>
+      <c r="V3">
+        <v>6.4683000000000002</v>
+      </c>
+      <c r="W3">
+        <v>6.2887000000000004</v>
+      </c>
+      <c r="X3">
+        <v>5.1586999999999996</v>
+      </c>
+      <c r="Y3">
+        <v>5.6196000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -18228,8 +18297,29 @@
       <c r="Q4">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.57989999999999997</v>
+      </c>
+      <c r="V4">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="X4">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="Y4">
+        <v>0.75080000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -18272,8 +18362,29 @@
       <c r="Q5">
         <v>-7.1840999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <v>-22.192499999999999</v>
+      </c>
+      <c r="U5">
+        <v>-9.5869999999999997</v>
+      </c>
+      <c r="V5">
+        <v>-6.5073999999999996</v>
+      </c>
+      <c r="W5">
+        <v>-5.0491000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-3.3980999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>-3.6705999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -18316,8 +18427,29 @@
       <c r="Q6">
         <v>9.4588000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="U6">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="V6">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="W6">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="X6">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="Y6">
+        <v>6.1896000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -18360,8 +18492,29 @@
       <c r="Q7">
         <v>1.1518999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7">
+        <v>1.0962000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="V7">
+        <v>1.7903</v>
+      </c>
+      <c r="W7">
+        <v>1.1501999999999999</v>
+      </c>
+      <c r="X7">
+        <v>2.0621</v>
+      </c>
+      <c r="Y7">
+        <v>1.6095999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -18404,8 +18557,29 @@
       <c r="Q8">
         <v>1.5048999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>4.6615000000000002</v>
+      </c>
+      <c r="U8">
+        <v>1.9464999999999999</v>
+      </c>
+      <c r="V8">
+        <v>1.4164000000000001</v>
+      </c>
+      <c r="W8">
+        <v>1.2366999999999999</v>
+      </c>
+      <c r="X8">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="Y8">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K9" t="s">
         <v>10</v>
       </c>
@@ -18427,9 +18601,30 @@
       <c r="Q9">
         <v>1.4225000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="U9">
+        <v>1.2705</v>
+      </c>
+      <c r="V9">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="W9">
+        <v>1.5452999999999999</v>
+      </c>
+      <c r="X9">
+        <v>2.0649000000000002</v>
+      </c>
+      <c r="Y9">
+        <v>1.8380000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -18468,8 +18663,27 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" s="2"/>
+      <c r="T14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -18525,65 +18739,121 @@
         <f t="shared" si="1"/>
         <v>0.15639500000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15" s="4" t="str">
+        <f>S2</f>
+        <v>Return</v>
+      </c>
+      <c r="T15" s="5">
+        <f>T2/100</f>
+        <v>0.14282300000000001</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" ref="U15:Y15" si="2">U2/100</f>
+        <v>0.143043</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14353300000000002</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14847399999999999</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14034099999999999</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.144486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="5">
-        <f t="shared" ref="B16:G16" si="2">B3/100</f>
+        <f t="shared" ref="B16:G16" si="3">B3/100</f>
         <v>0.20985499999999999</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.172623</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15961400000000001</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14895899999999998</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.126919</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.134968</v>
       </c>
       <c r="K16" s="6" t="str">
-        <f t="shared" ref="K16:K22" si="3">K3</f>
+        <f t="shared" ref="K16:K22" si="4">K3</f>
         <v>Volatility</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:Q16" si="4">L3/100</f>
+        <f t="shared" ref="L16:Q16" si="5">L3/100</f>
         <v>0.10952099999999999</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.7627999999999998E-2</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.9588000000000006E-2</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8745999999999997E-2</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5045000000000006E-2</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0666000000000007E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S16" s="6" t="str">
+        <f t="shared" ref="S16:S22" si="6">S3</f>
+        <v>Volatility</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" ref="T16:Y16" si="7">T3/100</f>
+        <v>9.4352000000000005E-2</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="7"/>
+        <v>7.0384000000000002E-2</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="7"/>
+        <v>6.4683000000000004E-2</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" si="7"/>
+        <v>6.2886999999999998E-2</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="7"/>
+        <v>5.1586999999999994E-2</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="7"/>
+        <v>5.6196000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -18592,27 +18862,27 @@
         <v>0.67859999999999998</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" ref="C17:G21" si="5">C4</f>
+        <f t="shared" ref="C17:G21" si="8">C4</f>
         <v>0.67069999999999996</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.72619999999999996</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.9405</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.95689999999999997</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.97319999999999995</v>
       </c>
       <c r="K17" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sharpe</v>
       </c>
       <c r="L17" s="7">
@@ -18620,84 +18890,140 @@
         <v>0.48520000000000002</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" ref="M17:Q17" si="6">M4</f>
+        <f t="shared" ref="M17:Q17" si="9">M4</f>
         <v>0.53059999999999996</v>
       </c>
       <c r="N17" s="7">
+        <f t="shared" si="9"/>
+        <v>0.50370000000000004</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="9"/>
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="9"/>
+        <v>0.60880000000000001</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="9"/>
+        <v>0.66</v>
+      </c>
+      <c r="S17" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>0.50370000000000004</v>
-      </c>
-      <c r="O17" s="7">
-        <f t="shared" si="6"/>
-        <v>0.67930000000000001</v>
-      </c>
-      <c r="P17" s="7">
-        <f t="shared" si="6"/>
-        <v>0.60880000000000001</v>
-      </c>
-      <c r="Q17" s="7">
-        <f t="shared" si="6"/>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>Sharpe</v>
+      </c>
+      <c r="T17" s="7">
+        <f>T4</f>
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" ref="U17:Y17" si="10">U4</f>
+        <v>0.57989999999999997</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="10"/>
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="10"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" si="10"/>
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="10"/>
+        <v>0.75080000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="8">
-        <f t="shared" ref="B18:G18" si="7">B5/100</f>
+        <f t="shared" ref="B18:G18" si="11">B5/100</f>
         <v>-0.42452199999999995</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.47020099999999998</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.42338199999999998</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.293043</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.301952</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.29308299999999998</v>
       </c>
       <c r="K18" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MaxDD</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" ref="L18:Q18" si="8">L5/100</f>
+        <f t="shared" ref="L18:Q18" si="12">L5/100</f>
         <v>-0.30613399999999996</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-0.11587600000000001</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-0.11587600000000001</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-7.2933999999999999E-2</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-7.0747000000000004E-2</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-7.1841000000000002E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S18" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>MaxDD</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" ref="T18:Y18" si="13">T5/100</f>
+        <v>-0.22192499999999998</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" si="13"/>
+        <v>-9.5869999999999997E-2</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" si="13"/>
+        <v>-6.5073999999999993E-2</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" si="13"/>
+        <v>-5.0491000000000001E-2</v>
+      </c>
+      <c r="X18" s="8">
+        <f t="shared" si="13"/>
+        <v>-3.3980999999999997E-2</v>
+      </c>
+      <c r="Y18" s="8">
+        <f t="shared" si="13"/>
+        <v>-3.6705999999999996E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -18706,27 +19032,27 @@
         <v>0.439</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.34310000000000002</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.38069999999999998</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.624</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.54759999999999998</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.5958</v>
       </c>
       <c r="K19" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Inflation CAGR</v>
       </c>
       <c r="L19" s="5">
@@ -18734,56 +19060,84 @@
         <v>9.4588000000000005E-2</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" ref="M19:Q19" si="9">M6/100</f>
+        <f t="shared" ref="M19:Q19" si="14">M6/100</f>
         <v>9.4588000000000005E-2</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.4588000000000005E-2</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.4588000000000005E-2</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.4588000000000005E-2</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.4588000000000005E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S19" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>Inflation CAGR</v>
+      </c>
+      <c r="T19" s="5">
+        <f>T6/100</f>
+        <v>6.1896000000000007E-2</v>
+      </c>
+      <c r="U19" s="5">
+        <f t="shared" ref="U19:Y19" si="15">U6/100</f>
+        <v>6.1896000000000007E-2</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="15"/>
+        <v>6.1896000000000007E-2</v>
+      </c>
+      <c r="W19" s="5">
+        <f t="shared" si="15"/>
+        <v>6.1896000000000007E-2</v>
+      </c>
+      <c r="X19" s="5">
+        <f t="shared" si="15"/>
+        <v>6.1896000000000007E-2</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="15"/>
+        <v>6.1896000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="8">
-        <f t="shared" ref="B20:G20" si="10">B7/100</f>
+        <f t="shared" ref="B20:G20" si="16">B7/100</f>
         <v>0.13117699999999999</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.16582</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.14633200000000002</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9.0653000000000011E-2</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.629400000000001E-2</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>8.6545000000000011E-2</v>
       </c>
       <c r="K20" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Calmar Ratio</v>
       </c>
       <c r="L20" s="7">
@@ -18791,27 +19145,55 @@
         <v>0.50660000000000005</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" ref="M20:Q20" si="11">M7</f>
+        <f t="shared" ref="M20:Q20" si="17">M7</f>
         <v>0.59279999999999999</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.3162</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.78220000000000001</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.6578999999999999</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.1518999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S20" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>Calmar Ratio</v>
+      </c>
+      <c r="T20" s="7">
+        <f>T7</f>
+        <v>1.0962000000000001</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" ref="U20:Y20" si="18">U7</f>
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="18"/>
+        <v>1.7903</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="18"/>
+        <v>1.1501999999999999</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" si="18"/>
+        <v>2.0621</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" si="18"/>
+        <v>1.6095999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -18820,57 +19202,85 @@
         <v>0.44069999999999998</v>
       </c>
       <c r="C21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.4476</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.49590000000000001</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.64870000000000005</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.69869999999999999</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.69679999999999997</v>
       </c>
       <c r="K21" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Ulcer Index</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" ref="L21:Q21" si="12">L8/100</f>
+        <f t="shared" ref="L21:Q21" si="19">L8/100</f>
         <v>6.3480999999999996E-2</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.5961999999999999E-2</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>2.5821999999999998E-2</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.7378000000000001E-2</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.4005E-2</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1.5049E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S21" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>Ulcer Index</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" ref="T21:Y21" si="20">T8/100</f>
+        <v>4.6615000000000004E-2</v>
+      </c>
+      <c r="U21" s="8">
+        <f t="shared" si="20"/>
+        <v>1.9465E-2</v>
+      </c>
+      <c r="V21" s="8">
+        <f t="shared" si="20"/>
+        <v>1.4164000000000001E-2</v>
+      </c>
+      <c r="W21" s="8">
+        <f t="shared" si="20"/>
+        <v>1.2367E-2</v>
+      </c>
+      <c r="X21" s="8">
+        <f t="shared" si="20"/>
+        <v>7.8650000000000005E-3</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" si="20"/>
+        <v>9.6460000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Sortino Ratio</v>
       </c>
       <c r="L22" s="10">
@@ -18878,28 +19288,264 @@
         <v>0.82720000000000005</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" ref="M22:Q22" si="13">M9</f>
+        <f t="shared" ref="M22:Q22" si="21">M9</f>
         <v>1.0073000000000001</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.0673999999999999</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.3208</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.4611000000000001</v>
       </c>
       <c r="Q22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.4225000000000001</v>
       </c>
+      <c r="S22" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>Sortino Ratio</v>
+      </c>
+      <c r="T22" s="10">
+        <f>T9</f>
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="U22" s="10">
+        <f t="shared" ref="U22:Y22" si="22">U9</f>
+        <v>1.2705</v>
+      </c>
+      <c r="V22" s="10">
+        <f t="shared" si="22"/>
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="W22" s="10">
+        <f t="shared" si="22"/>
+        <v>1.5452999999999999</v>
+      </c>
+      <c r="X22" s="10">
+        <f t="shared" si="22"/>
+        <v>2.0649000000000002</v>
+      </c>
+      <c r="Y22" s="10">
+        <f t="shared" si="22"/>
+        <v>1.8380000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>14.282299999999999</v>
+      </c>
+      <c r="M27">
+        <v>14.3043</v>
+      </c>
+      <c r="N27">
+        <v>14.353300000000001</v>
+      </c>
+      <c r="O27">
+        <v>14.8474</v>
+      </c>
+      <c r="P27">
+        <v>14.0341</v>
+      </c>
+      <c r="Q27">
+        <v>14.448600000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>9.4352</v>
+      </c>
+      <c r="M28">
+        <v>7.0384000000000002</v>
+      </c>
+      <c r="N28">
+        <v>6.4683000000000002</v>
+      </c>
+      <c r="O28">
+        <v>6.2887000000000004</v>
+      </c>
+      <c r="P28">
+        <v>5.1586999999999996</v>
+      </c>
+      <c r="Q28">
+        <v>5.6196000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="M29">
+        <v>0.57989999999999997</v>
+      </c>
+      <c r="N29">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="O29">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P29">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="Q29">
+        <v>0.75080000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30">
+        <v>-22.192499999999999</v>
+      </c>
+      <c r="M30">
+        <v>-9.5869999999999997</v>
+      </c>
+      <c r="N30">
+        <v>-6.5073999999999996</v>
+      </c>
+      <c r="O30">
+        <v>-5.0491000000000001</v>
+      </c>
+      <c r="P30">
+        <v>-3.3980999999999999</v>
+      </c>
+      <c r="Q30">
+        <v>-3.6705999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="M31">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="N31">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="O31">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="P31">
+        <v>6.1896000000000004</v>
+      </c>
+      <c r="Q31">
+        <v>6.1896000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>1.0962000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="N32">
+        <v>1.7903</v>
+      </c>
+      <c r="O32">
+        <v>1.1501999999999999</v>
+      </c>
+      <c r="P32">
+        <v>2.0621</v>
+      </c>
+      <c r="Q32">
+        <v>1.6095999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>4.6615000000000002</v>
+      </c>
+      <c r="M33">
+        <v>1.9464999999999999</v>
+      </c>
+      <c r="N33">
+        <v>1.4164000000000001</v>
+      </c>
+      <c r="O33">
+        <v>1.2366999999999999</v>
+      </c>
+      <c r="P33">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="Q33">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="M34">
+        <v>1.2705</v>
+      </c>
+      <c r="N34">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="O34">
+        <v>1.5452999999999999</v>
+      </c>
+      <c r="P34">
+        <v>2.0649000000000002</v>
+      </c>
+      <c r="Q34">
+        <v>1.8380000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18907,7 +19553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V19" sqref="V19:AH20"/>
     </sheetView>
   </sheetViews>
